--- a/biology/Zoologie/Bothrops_pulchra/Bothrops_pulchra.xlsx
+++ b/biology/Zoologie/Bothrops_pulchra/Bothrops_pulchra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrops pulchra est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrops pulchra est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Équateur et en Colombie entre 1 000 et 2 000 m d'altitude sur le versant Est de la cordillère des Andes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Équateur et en Colombie entre 1 000 et 2 000 m d'altitude sur le versant Est de la cordillère des Andes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Parker, 1934 : Reptiles and amphibians from southern Ecuador. Annals and Magazine of Natural History, sér. 10, vol. 14, p. 264-273.
 Peters, 1862 : Über die craniologischen Verschiedenheiten der Grubenottern (Trigonocephali) und über eine neue Art der Gattung Bothriechis. Monatsbericht der Königlich-Preussischen Akademie der Wissenschaften zu Berlin, vol. 1862, p. 670-674 (texte intégral).
